--- a/demo-springcloud/dsc-hoxton/dsc-h-tool/file/read/字典数据.xlsx
+++ b/demo-springcloud/dsc-hoxton/dsc-h-tool/file/read/字典数据.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Repo-IDEA\demo-springcloud\dsc-hoxton\dsc-h-tool\file\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F9431-5F13-4E6C-8E49-2602F6B1AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="行政区划" sheetId="1" r:id="rId1"/>
-    <sheet name="姓" sheetId="2" r:id="rId2"/>
-    <sheet name="名" sheetId="3" r:id="rId3"/>
+    <sheet name="xzqh" sheetId="1" r:id="rId1"/>
+    <sheet name="xing" sheetId="2" r:id="rId2"/>
+    <sheet name="ming" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5602,7 +5601,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5926,7 +5925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10201,7 +10200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB2DEB2-10B9-42F4-9459-50DBD08FFA0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView topLeftCell="A188" workbookViewId="0">
@@ -15258,11 +15257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E50461-9BC8-441F-99F4-D5736BF317C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A717"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
